--- a/doc/Tech_Investigator_テスト仕様書_Ver.1.0.xlsx
+++ b/doc/Tech_Investigator_テスト仕様書_Ver.1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\石川 篤\Documents\自主制作\tech-investigator\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D38557-1338-4EED-AA4C-9DB44DE120DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2270C04C-893A-493A-AA7E-64D2191CEF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{BC255931-F6E8-4E1D-B06C-E2947E767A24}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="103">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -750,6 +750,293 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlにて検索を実行し遷移させて画面表示</t>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験番号5-3-1、5-3-2実施の際合わせて確認</t>
+    <rPh sb="0" eb="4">
+      <t>シケンバンゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.htmlから検索を実行しても結果表示レイアウトが狂わないこと</t>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>クル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験番号5-4-1実施の際に合わせて確認</t>
+    <rPh sb="0" eb="4">
+      <t>シケンバンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト名表示</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドメイン名表示</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索フォームに入力したドメイン名からサブドメインとトップレベルドメインを除去したものであること</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジョキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索フォームに入力したドメイン名であること</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術要素表示</t>
+    <rPh sb="0" eb="4">
+      <t>ギジュツヨウソ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術要素のジャンル名がJSONレスポンスの「Tag」と一致している</t>
+    <rPh sb="0" eb="4">
+      <t>ギジュツヨウソ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術要素名がJSONレスポンスの「Name」と一致している</t>
+    <rPh sb="0" eb="4">
+      <t>ギジュツヨウソ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術要素名が当該技術に関するウェブサイトへのリンクとなっている</t>
+    <rPh sb="0" eb="4">
+      <t>ギジュツヨウソ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>トウガイギジュツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例外処理</t>
+    <rPh sb="0" eb="4">
+      <t>レイガイショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通信失敗</t>
+    <rPh sb="0" eb="4">
+      <t>ツウシンシッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワーク通信をOFFにして検索実行</t>
+    <rPh sb="6" eb="8">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ケンサクジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドメイン名指定ミス</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索フォームに「example」と入力して検索実行</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ケンサクジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果画面でAn error has occurred... Error: invalid hostname 「example」という文言を表示</t>
+    <rPh sb="0" eb="6">
+      <t>ケンサクケッカガメン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIキー指定ミス</t>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIキーを一文字消去して検索を実行</t>
+    <rPh sb="6" eb="11">
+      <t>ヒトモジショウキョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果画面でAn error has occurred... Error: Your key is invalidという文言を表示</t>
+    <rPh sb="0" eb="6">
+      <t>ケンサクケッカガメン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果画面でAn error has occurred... Error: TypeError: Failed to fetchという文言を表示</t>
+    <rPh sb="0" eb="6">
+      <t>ケンサクケッカガメン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1670,6 +1957,12 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1713,6 +2006,45 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1725,120 +2057,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1848,20 +2147,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1969,7 +2256,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$P$2" spid="_x0000_s5163"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$P$2" spid="_x0000_s5175"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2039,7 +2326,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$3:$P$4" spid="_x0000_s3115"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$3:$P$4" spid="_x0000_s3127"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2866,7 +3153,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$5:$P$6" spid="_x0000_s6211"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$5:$P$6" spid="_x0000_s6247"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3220,38 +3507,38 @@
   <sheetData>
     <row r="6" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="64"/>
     </row>
     <row r="8" spans="2:23" ht="41.4" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="74"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -3288,77 +3575,77 @@
       <c r="W9" s="5"/>
     </row>
     <row r="10" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="67"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
     </row>
     <row r="15" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="2:23" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="J16" s="68" t="s">
+      <c r="J16" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="69"/>
-      <c r="L16" s="75" t="s">
+      <c r="K16" s="71"/>
+      <c r="L16" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="76"/>
+      <c r="M16" s="78"/>
     </row>
     <row r="17" spans="2:21" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J17" s="77" t="s">
+      <c r="J17" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="78"/>
-      <c r="L17" s="73">
+      <c r="K17" s="80"/>
+      <c r="L17" s="75">
         <v>45247</v>
       </c>
-      <c r="M17" s="74"/>
+      <c r="M17" s="76"/>
     </row>
     <row r="23" spans="2:21" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3474,788 +3761,688 @@
       <c r="A4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89" t="s">
+      <c r="G4" s="81"/>
+      <c r="H4" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89" t="s">
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92">
+      <c r="C5" s="83"/>
+      <c r="D5" s="84">
         <f>表紙!L17</f>
         <v>45247</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="93" t="s">
+      <c r="E5" s="84"/>
+      <c r="F5" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94" t="s">
+      <c r="G5" s="85"/>
+      <c r="H5" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="92" t="str">
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="84" t="str">
         <f>表紙!L16</f>
         <v>髙橋</v>
       </c>
-      <c r="W5" s="93"/>
-      <c r="X5" s="95"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="87"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="86"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="93"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="str">
         <f t="shared" ref="A7:A26" si="0">IF(B7&lt;&gt;"", A6 + 1, "")</f>
         <v/>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="93"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="86"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="93"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="86"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="93"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="86"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="93"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="86"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="93"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="86"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="93"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="86"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="93"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="86"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="93"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="86"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="93"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="86"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="88"/>
+      <c r="X16" s="93"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="86"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="88"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="93"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="86"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="93"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="86"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="88"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="93"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="86"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="93"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="83"/>
-      <c r="W21" s="83"/>
-      <c r="X21" s="86"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="93"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="86"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="93"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="86"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="93"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="86"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="93"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="83"/>
-      <c r="X25" s="86"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="93"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="82"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:U5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:U23"/>
-    <mergeCell ref="V23:X23"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
@@ -4271,6 +4458,106 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="H25:U25"/>
     <mergeCell ref="V25:X25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:U5"/>
+    <mergeCell ref="V5:X5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4360,109 +4647,109 @@
       <c r="AC2" s="17"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="98"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="116"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="96" t="s">
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="U5" s="98"/>
+      <c r="U5" s="116"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="96" t="s">
+      <c r="E6" s="114"/>
+      <c r="F6" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="96" t="s">
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="U6" s="98"/>
+      <c r="U6" s="116"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="C7" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99" t="s">
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99" t="s">
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="96" t="s">
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="98"/>
+      <c r="U7" s="116"/>
     </row>
     <row r="8" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="57" t="s">
@@ -4508,76 +4795,76 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="107" t="s">
+      <c r="C9" s="119"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="108"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="108"/>
-      <c r="AC9" s="109"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="107"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A10" s="100"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="111"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="111"/>
-      <c r="AB10" s="111"/>
-      <c r="AC10" s="112"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="110"/>
     </row>
     <row r="11" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20"/>
@@ -4601,14 +4888,14 @@
       <c r="S11" s="23"/>
       <c r="T11" s="20"/>
       <c r="U11" s="25"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="114"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" s="115"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="113"/>
     </row>
     <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="26"/>
@@ -4632,14 +4919,14 @@
       <c r="S12" s="29"/>
       <c r="T12" s="26"/>
       <c r="U12" s="31"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="105"/>
-      <c r="X12" s="105"/>
-      <c r="Y12" s="105"/>
-      <c r="Z12" s="105"/>
-      <c r="AA12" s="105"/>
-      <c r="AB12" s="105"/>
-      <c r="AC12" s="106"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="100"/>
     </row>
     <row r="13" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
@@ -4663,14 +4950,14 @@
       <c r="S13" s="29"/>
       <c r="T13" s="26"/>
       <c r="U13" s="31"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="105"/>
-      <c r="X13" s="105"/>
-      <c r="Y13" s="105"/>
-      <c r="Z13" s="105"/>
-      <c r="AA13" s="105"/>
-      <c r="AB13" s="105"/>
-      <c r="AC13" s="106"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="100"/>
     </row>
     <row r="14" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="26"/>
@@ -4694,14 +4981,14 @@
       <c r="S14" s="29"/>
       <c r="T14" s="26"/>
       <c r="U14" s="31"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="105"/>
-      <c r="X14" s="105"/>
-      <c r="Y14" s="105"/>
-      <c r="Z14" s="105"/>
-      <c r="AA14" s="105"/>
-      <c r="AB14" s="105"/>
-      <c r="AC14" s="106"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="100"/>
     </row>
     <row r="15" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="26"/>
@@ -4725,14 +5012,14 @@
       <c r="S15" s="29"/>
       <c r="T15" s="26"/>
       <c r="U15" s="31"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="105"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="105"/>
-      <c r="AA15" s="105"/>
-      <c r="AB15" s="105"/>
-      <c r="AC15" s="106"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="99"/>
+      <c r="X15" s="99"/>
+      <c r="Y15" s="99"/>
+      <c r="Z15" s="99"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="99"/>
+      <c r="AC15" s="100"/>
     </row>
     <row r="16" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="26"/>
@@ -4756,14 +5043,14 @@
       <c r="S16" s="29"/>
       <c r="T16" s="26"/>
       <c r="U16" s="31"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="105"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="105"/>
-      <c r="Z16" s="105"/>
-      <c r="AA16" s="105"/>
-      <c r="AB16" s="105"/>
-      <c r="AC16" s="106"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
+      <c r="Y16" s="99"/>
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="100"/>
     </row>
     <row r="17" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26"/>
@@ -4787,14 +5074,14 @@
       <c r="S17" s="29"/>
       <c r="T17" s="26"/>
       <c r="U17" s="31"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="105"/>
-      <c r="X17" s="105"/>
-      <c r="Y17" s="105"/>
-      <c r="Z17" s="105"/>
-      <c r="AA17" s="105"/>
-      <c r="AB17" s="105"/>
-      <c r="AC17" s="106"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="99"/>
+      <c r="X17" s="99"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="99"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="100"/>
     </row>
     <row r="18" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="26"/>
@@ -4818,14 +5105,14 @@
       <c r="S18" s="29"/>
       <c r="T18" s="26"/>
       <c r="U18" s="31"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="105"/>
-      <c r="X18" s="105"/>
-      <c r="Y18" s="105"/>
-      <c r="Z18" s="105"/>
-      <c r="AA18" s="105"/>
-      <c r="AB18" s="105"/>
-      <c r="AC18" s="106"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="100"/>
     </row>
     <row r="19" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="26"/>
@@ -4849,14 +5136,14 @@
       <c r="S19" s="29"/>
       <c r="T19" s="26"/>
       <c r="U19" s="31"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="105"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="105"/>
-      <c r="Z19" s="105"/>
-      <c r="AA19" s="105"/>
-      <c r="AB19" s="105"/>
-      <c r="AC19" s="106"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="100"/>
     </row>
     <row r="20" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="26"/>
@@ -4880,14 +5167,14 @@
       <c r="S20" s="29"/>
       <c r="T20" s="26"/>
       <c r="U20" s="31"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="105"/>
-      <c r="X20" s="105"/>
-      <c r="Y20" s="105"/>
-      <c r="Z20" s="105"/>
-      <c r="AA20" s="105"/>
-      <c r="AB20" s="105"/>
-      <c r="AC20" s="106"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="100"/>
     </row>
     <row r="21" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="26"/>
@@ -4911,14 +5198,14 @@
       <c r="S21" s="29"/>
       <c r="T21" s="26"/>
       <c r="U21" s="31"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="105"/>
-      <c r="X21" s="105"/>
-      <c r="Y21" s="105"/>
-      <c r="Z21" s="105"/>
-      <c r="AA21" s="105"/>
-      <c r="AB21" s="105"/>
-      <c r="AC21" s="106"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="100"/>
     </row>
     <row r="22" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="26"/>
@@ -4942,14 +5229,14 @@
       <c r="S22" s="29"/>
       <c r="T22" s="26"/>
       <c r="U22" s="31"/>
-      <c r="V22" s="104"/>
-      <c r="W22" s="105"/>
-      <c r="X22" s="105"/>
-      <c r="Y22" s="105"/>
-      <c r="Z22" s="105"/>
-      <c r="AA22" s="105"/>
-      <c r="AB22" s="105"/>
-      <c r="AC22" s="106"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="99"/>
+      <c r="X22" s="99"/>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="100"/>
     </row>
     <row r="23" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
@@ -4973,14 +5260,14 @@
       <c r="S23" s="29"/>
       <c r="T23" s="26"/>
       <c r="U23" s="31"/>
-      <c r="V23" s="104"/>
-      <c r="W23" s="105"/>
-      <c r="X23" s="105"/>
-      <c r="Y23" s="105"/>
-      <c r="Z23" s="105"/>
-      <c r="AA23" s="105"/>
-      <c r="AB23" s="105"/>
-      <c r="AC23" s="106"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="100"/>
     </row>
     <row r="24" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="26"/>
@@ -5004,14 +5291,14 @@
       <c r="S24" s="29"/>
       <c r="T24" s="26"/>
       <c r="U24" s="31"/>
-      <c r="V24" s="104"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="105"/>
-      <c r="Z24" s="105"/>
-      <c r="AA24" s="105"/>
-      <c r="AB24" s="105"/>
-      <c r="AC24" s="106"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="100"/>
     </row>
     <row r="25" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="26"/>
@@ -5035,14 +5322,14 @@
       <c r="S25" s="29"/>
       <c r="T25" s="26"/>
       <c r="U25" s="31"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="105"/>
-      <c r="X25" s="105"/>
-      <c r="Y25" s="105"/>
-      <c r="Z25" s="105"/>
-      <c r="AA25" s="105"/>
-      <c r="AB25" s="105"/>
-      <c r="AC25" s="106"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="100"/>
     </row>
     <row r="26" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="26"/>
@@ -5066,14 +5353,14 @@
       <c r="S26" s="29"/>
       <c r="T26" s="26"/>
       <c r="U26" s="31"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="105"/>
-      <c r="X26" s="105"/>
-      <c r="Y26" s="105"/>
-      <c r="Z26" s="105"/>
-      <c r="AA26" s="105"/>
-      <c r="AB26" s="105"/>
-      <c r="AC26" s="106"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="99"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="99"/>
+      <c r="AC26" s="100"/>
     </row>
     <row r="27" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="26"/>
@@ -5097,14 +5384,14 @@
       <c r="S27" s="29"/>
       <c r="T27" s="26"/>
       <c r="U27" s="31"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="105"/>
-      <c r="X27" s="105"/>
-      <c r="Y27" s="105"/>
-      <c r="Z27" s="105"/>
-      <c r="AA27" s="105"/>
-      <c r="AB27" s="105"/>
-      <c r="AC27" s="106"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="99"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="99"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="99"/>
+      <c r="AC27" s="100"/>
     </row>
     <row r="28" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="26"/>
@@ -5128,14 +5415,14 @@
       <c r="S28" s="29"/>
       <c r="T28" s="26"/>
       <c r="U28" s="31"/>
-      <c r="V28" s="104"/>
-      <c r="W28" s="105"/>
-      <c r="X28" s="105"/>
-      <c r="Y28" s="105"/>
-      <c r="Z28" s="105"/>
-      <c r="AA28" s="105"/>
-      <c r="AB28" s="105"/>
-      <c r="AC28" s="106"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="99"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="99"/>
+      <c r="AC28" s="100"/>
     </row>
     <row r="29" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="26"/>
@@ -5159,14 +5446,14 @@
       <c r="S29" s="29"/>
       <c r="T29" s="26"/>
       <c r="U29" s="31"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="105"/>
-      <c r="X29" s="105"/>
-      <c r="Y29" s="105"/>
-      <c r="Z29" s="105"/>
-      <c r="AA29" s="105"/>
-      <c r="AB29" s="105"/>
-      <c r="AC29" s="106"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="99"/>
+      <c r="X29" s="99"/>
+      <c r="Y29" s="99"/>
+      <c r="Z29" s="99"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="99"/>
+      <c r="AC29" s="100"/>
     </row>
     <row r="30" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="26"/>
@@ -5190,14 +5477,14 @@
       <c r="S30" s="29"/>
       <c r="T30" s="26"/>
       <c r="U30" s="31"/>
-      <c r="V30" s="104"/>
-      <c r="W30" s="105"/>
-      <c r="X30" s="105"/>
-      <c r="Y30" s="105"/>
-      <c r="Z30" s="105"/>
-      <c r="AA30" s="105"/>
-      <c r="AB30" s="105"/>
-      <c r="AC30" s="106"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="99"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="99"/>
+      <c r="AB30" s="99"/>
+      <c r="AC30" s="100"/>
     </row>
     <row r="31" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="26"/>
@@ -5221,14 +5508,14 @@
       <c r="S31" s="29"/>
       <c r="T31" s="26"/>
       <c r="U31" s="31"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="105"/>
-      <c r="X31" s="105"/>
-      <c r="Y31" s="105"/>
-      <c r="Z31" s="105"/>
-      <c r="AA31" s="105"/>
-      <c r="AB31" s="105"/>
-      <c r="AC31" s="106"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="99"/>
+      <c r="X31" s="99"/>
+      <c r="Y31" s="99"/>
+      <c r="Z31" s="99"/>
+      <c r="AA31" s="99"/>
+      <c r="AB31" s="99"/>
+      <c r="AC31" s="100"/>
     </row>
     <row r="32" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="32"/>
@@ -5252,31 +5539,33 @@
       <c r="S32" s="35"/>
       <c r="T32" s="32"/>
       <c r="U32" s="37"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="117"/>
-      <c r="X32" s="117"/>
-      <c r="Y32" s="117"/>
-      <c r="Z32" s="117"/>
-      <c r="AA32" s="117"/>
-      <c r="AB32" s="117"/>
-      <c r="AC32" s="118"/>
+      <c r="V32" s="101"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="102"/>
+      <c r="AA32" s="102"/>
+      <c r="AB32" s="102"/>
+      <c r="AC32" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="V24:AC24"/>
-    <mergeCell ref="V19:AC19"/>
-    <mergeCell ref="V20:AC20"/>
-    <mergeCell ref="V21:AC21"/>
-    <mergeCell ref="V22:AC22"/>
-    <mergeCell ref="V23:AC23"/>
-    <mergeCell ref="V31:AC31"/>
-    <mergeCell ref="V32:AC32"/>
-    <mergeCell ref="V25:AC25"/>
-    <mergeCell ref="V26:AC26"/>
-    <mergeCell ref="V27:AC27"/>
-    <mergeCell ref="V28:AC28"/>
-    <mergeCell ref="V29:AC29"/>
-    <mergeCell ref="V30:AC30"/>
+    <mergeCell ref="D4:U4"/>
+    <mergeCell ref="D5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:K10"/>
+    <mergeCell ref="L9:N10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="T7:U7"/>
     <mergeCell ref="V18:AC18"/>
     <mergeCell ref="O9:S10"/>
     <mergeCell ref="T9:U10"/>
@@ -5288,22 +5577,20 @@
     <mergeCell ref="V15:AC15"/>
     <mergeCell ref="V16:AC16"/>
     <mergeCell ref="V17:AC17"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:K10"/>
-    <mergeCell ref="L9:N10"/>
-    <mergeCell ref="D4:U4"/>
-    <mergeCell ref="D5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:S6"/>
-    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V31:AC31"/>
+    <mergeCell ref="V32:AC32"/>
+    <mergeCell ref="V25:AC25"/>
+    <mergeCell ref="V26:AC26"/>
+    <mergeCell ref="V27:AC27"/>
+    <mergeCell ref="V28:AC28"/>
+    <mergeCell ref="V29:AC29"/>
+    <mergeCell ref="V30:AC30"/>
+    <mergeCell ref="V24:AC24"/>
+    <mergeCell ref="V19:AC19"/>
+    <mergeCell ref="V20:AC20"/>
+    <mergeCell ref="V21:AC21"/>
+    <mergeCell ref="V22:AC22"/>
+    <mergeCell ref="V23:AC23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5322,8 +5609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D5DA72-9DEC-40B5-A7C3-061A786C7D2D}">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.8984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -5347,39 +5634,39 @@
         <f t="array" aca="1" ref="A1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>テスト仕様書</v>
       </c>
-      <c r="N1" s="119" t="s">
+      <c r="N1" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119" t="s">
+      <c r="O1" s="121"/>
+      <c r="P1" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="119"/>
+      <c r="Q1" s="121"/>
     </row>
     <row r="2" spans="1:24" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="N2" s="119" t="s">
+      <c r="N2" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119" t="str">
+      <c r="O2" s="121"/>
+      <c r="P2" s="121" t="str">
         <f>COUNT(A7:A35)&amp;"件"</f>
-        <v>12件</v>
-      </c>
-      <c r="Q2" s="119"/>
+        <v>21件</v>
+      </c>
+      <c r="Q2" s="121"/>
       <c r="S2" s="17"/>
       <c r="W2" s="17"/>
     </row>
     <row r="3" spans="1:24" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="15"/>
-      <c r="N3" s="119" t="s">
+      <c r="N3" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119" t="str">
+      <c r="O3" s="121"/>
+      <c r="P3" s="121" t="str">
         <f>COUNTIF(P7:P35,"×")&amp;"件"</f>
         <v>0件</v>
       </c>
-      <c r="Q3" s="119"/>
+      <c r="Q3" s="121"/>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
@@ -5391,24 +5678,24 @@
       <c r="X4" s="16"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="J5" s="120" t="s">
+      <c r="J5" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120" t="s">
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="58"/>
@@ -5682,11 +5969,11 @@
       <c r="F11" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="127" t="s">
+      <c r="G11" s="60" t="s">
         <v>70</v>
       </c>
       <c r="H11" s="45"/>
-      <c r="I11" s="128" t="s">
+      <c r="I11" s="61" t="s">
         <v>69</v>
       </c>
       <c r="J11" s="26"/>
@@ -5722,7 +6009,7 @@
         <v>71</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>41</v>
@@ -5795,7 +6082,7 @@
       <c r="W13" s="29"/>
       <c r="X13" s="48"/>
     </row>
-    <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" ht="60" x14ac:dyDescent="0.45">
       <c r="A14" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5815,14 +6102,14 @@
         <v>65</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="47"/>
@@ -5840,18 +6127,18 @@
       <c r="W14" s="29"/>
       <c r="X14" s="48"/>
     </row>
-    <row r="15" spans="1:24" ht="45" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.45">
       <c r="A15" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B15" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="31">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="44" t="s">
         <v>71</v>
@@ -5863,7 +6150,7 @@
         <v>64</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="46" t="s">
@@ -5896,7 +6183,7 @@
       </c>
       <c r="C16" s="31">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="44" t="s">
         <v>71</v>
@@ -5905,14 +6192,14 @@
         <v>65</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="47"/>
@@ -5930,18 +6217,18 @@
       <c r="W16" s="29"/>
       <c r="X16" s="48"/>
     </row>
-    <row r="17" spans="1:24" ht="60" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" ht="45" x14ac:dyDescent="0.45">
       <c r="A17" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B17" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="31">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="44" t="s">
         <v>71</v>
@@ -5952,11 +6239,11 @@
       <c r="F17" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="127" t="s">
-        <v>70</v>
+      <c r="G17" s="44" t="s">
+        <v>68</v>
       </c>
       <c r="H17" s="45"/>
-      <c r="I17" s="128" t="s">
+      <c r="I17" s="46" t="s">
         <v>69</v>
       </c>
       <c r="J17" s="26"/>
@@ -5975,29 +6262,35 @@
       <c r="W17" s="29"/>
       <c r="X17" s="48"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" ht="60" x14ac:dyDescent="0.45">
       <c r="A18" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="31">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="44" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="44"/>
+        <v>65</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>70</v>
+      </c>
       <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
+      <c r="I18" s="61" t="s">
+        <v>69</v>
+      </c>
       <c r="J18" s="26"/>
       <c r="K18" s="47"/>
       <c r="L18" s="30"/>
@@ -6014,25 +6307,35 @@
       <c r="W18" s="29"/>
       <c r="X18" s="48"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A19" s="26" t="str">
+    <row r="19" spans="1:24" ht="45" x14ac:dyDescent="0.45">
+      <c r="A19" s="26">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B19" s="30" t="str">
+        <v>5</v>
+      </c>
+      <c r="B19" s="30">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C19" s="31" t="str">
+        <v>4</v>
+      </c>
+      <c r="C19" s="31">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>82</v>
+      </c>
       <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
+      <c r="I19" s="46" t="s">
+        <v>83</v>
+      </c>
       <c r="J19" s="26"/>
       <c r="K19" s="47"/>
       <c r="L19" s="30"/>
@@ -6049,25 +6352,35 @@
       <c r="W19" s="29"/>
       <c r="X19" s="48"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A20" s="26" t="str">
+    <row r="20" spans="1:24" ht="75" x14ac:dyDescent="0.45">
+      <c r="A20" s="26">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B20" s="30" t="str">
+        <v>5</v>
+      </c>
+      <c r="B20" s="30">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C20" s="31" t="str">
+        <v>5</v>
+      </c>
+      <c r="C20" s="31">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>84</v>
+      </c>
       <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
+      <c r="I20" s="46" t="s">
+        <v>87</v>
+      </c>
       <c r="J20" s="26"/>
       <c r="K20" s="47"/>
       <c r="L20" s="30"/>
@@ -6084,25 +6397,35 @@
       <c r="W20" s="29"/>
       <c r="X20" s="48"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A21" s="26" t="str">
+    <row r="21" spans="1:24" ht="30" x14ac:dyDescent="0.45">
+      <c r="A21" s="26">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B21" s="30" t="str">
+        <v>5</v>
+      </c>
+      <c r="B21" s="30">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C21" s="31" t="str">
+        <v>6</v>
+      </c>
+      <c r="C21" s="31">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>84</v>
+      </c>
       <c r="H21" s="45"/>
-      <c r="I21" s="46"/>
+      <c r="I21" s="46" t="s">
+        <v>88</v>
+      </c>
       <c r="J21" s="26"/>
       <c r="K21" s="47"/>
       <c r="L21" s="30"/>
@@ -6119,25 +6442,35 @@
       <c r="W21" s="29"/>
       <c r="X21" s="48"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A22" s="26" t="str">
+    <row r="22" spans="1:24" ht="45" x14ac:dyDescent="0.45">
+      <c r="A22" s="26">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B22" s="30" t="str">
+        <v>5</v>
+      </c>
+      <c r="B22" s="30">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C22" s="31" t="str">
+        <v>7</v>
+      </c>
+      <c r="C22" s="31">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>84</v>
+      </c>
       <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
+      <c r="I22" s="46" t="s">
+        <v>90</v>
+      </c>
       <c r="J22" s="26"/>
       <c r="K22" s="47"/>
       <c r="L22" s="30"/>
@@ -6154,25 +6487,35 @@
       <c r="W22" s="29"/>
       <c r="X22" s="48"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A23" s="26" t="str">
+    <row r="23" spans="1:24" ht="45" x14ac:dyDescent="0.45">
+      <c r="A23" s="26">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B23" s="30" t="str">
+        <v>5</v>
+      </c>
+      <c r="B23" s="30">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C23" s="31" t="str">
+        <v>7</v>
+      </c>
+      <c r="C23" s="31">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="44"/>
+        <v>2</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>84</v>
+      </c>
       <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
+      <c r="I23" s="46" t="s">
+        <v>91</v>
+      </c>
       <c r="J23" s="26"/>
       <c r="K23" s="47"/>
       <c r="L23" s="30"/>
@@ -6189,25 +6532,35 @@
       <c r="W23" s="29"/>
       <c r="X23" s="48"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A24" s="26" t="str">
+    <row r="24" spans="1:24" ht="45" x14ac:dyDescent="0.45">
+      <c r="A24" s="26">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B24" s="30" t="str">
+        <v>5</v>
+      </c>
+      <c r="B24" s="30">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C24" s="31" t="str">
+        <v>7</v>
+      </c>
+      <c r="C24" s="31">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="44"/>
+        <v>3</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>84</v>
+      </c>
       <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
+      <c r="I24" s="46" t="s">
+        <v>92</v>
+      </c>
       <c r="J24" s="26"/>
       <c r="K24" s="47"/>
       <c r="L24" s="30"/>
@@ -6224,25 +6577,35 @@
       <c r="W24" s="29"/>
       <c r="X24" s="48"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A25" s="26" t="str">
+    <row r="25" spans="1:24" ht="60" x14ac:dyDescent="0.45">
+      <c r="A25" s="26">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B25" s="30" t="str">
+        <v>6</v>
+      </c>
+      <c r="B25" s="30">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C25" s="31" t="str">
+        <v>1</v>
+      </c>
+      <c r="C25" s="31">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>95</v>
+      </c>
       <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
+      <c r="I25" s="46" t="s">
+        <v>102</v>
+      </c>
       <c r="J25" s="26"/>
       <c r="K25" s="47"/>
       <c r="L25" s="30"/>
@@ -6259,25 +6622,35 @@
       <c r="W25" s="29"/>
       <c r="X25" s="48"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A26" s="26" t="str">
+    <row r="26" spans="1:24" ht="75" x14ac:dyDescent="0.45">
+      <c r="A26" s="26">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B26" s="30" t="str">
+        <v>6</v>
+      </c>
+      <c r="B26" s="30">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C26" s="31" t="str">
+        <v>2</v>
+      </c>
+      <c r="C26" s="31">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>97</v>
+      </c>
       <c r="H26" s="45"/>
-      <c r="I26" s="46"/>
+      <c r="I26" s="46" t="s">
+        <v>98</v>
+      </c>
       <c r="J26" s="26"/>
       <c r="K26" s="47"/>
       <c r="L26" s="30"/>
@@ -6294,25 +6667,35 @@
       <c r="W26" s="29"/>
       <c r="X26" s="48"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A27" s="26" t="str">
+    <row r="27" spans="1:24" ht="60" x14ac:dyDescent="0.45">
+      <c r="A27" s="26">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B27" s="30" t="str">
+        <v>6</v>
+      </c>
+      <c r="B27" s="30">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C27" s="31" t="str">
+        <v>3</v>
+      </c>
+      <c r="C27" s="31">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>100</v>
+      </c>
       <c r="H27" s="45"/>
-      <c r="I27" s="46"/>
+      <c r="I27" s="46" t="s">
+        <v>101</v>
+      </c>
       <c r="J27" s="26"/>
       <c r="K27" s="47"/>
       <c r="L27" s="30"/>
@@ -6649,357 +7032,357 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="121" t="str">
+      <c r="A1" s="125" t="str">
         <f>表紙!$F$8</f>
         <v>テスト仕様書</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="125" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125" t="s">
+      <c r="J1" s="128"/>
+      <c r="K1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125" t="s">
+      <c r="L1" s="128"/>
+      <c r="M1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125" t="s">
+      <c r="N1" s="128"/>
+      <c r="O1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="125"/>
+      <c r="P1" s="128"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="124" t="str">
+      <c r="A2" s="123" t="str">
         <f ca="1">更新履歴!A1</f>
         <v>更新履歴</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="119" t="str">
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="121" t="str">
         <f>表紙!$L$16</f>
         <v>髙橋</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="126">
+      <c r="J2" s="121"/>
+      <c r="K2" s="124">
         <f>表紙!$L$17</f>
         <v>45247</v>
       </c>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126" t="str">
+      <c r="L2" s="124"/>
+      <c r="M2" s="124" t="str">
         <f>IF(COUNTA(更新履歴!$D$6:$E$26)=0, "", INDEX(更新履歴!V:V, MATCH(MAX(更新履歴!$D$6:$E$26), 更新履歴!D:D, 0)))</f>
         <v/>
       </c>
-      <c r="N2" s="119"/>
-      <c r="O2" s="126" t="str">
+      <c r="N2" s="121"/>
+      <c r="O2" s="124" t="str">
         <f>IF(COUNTA(更新履歴!$D$6:$E$26)=0,"",MAX(更新履歴!$D$6:$E$26))</f>
         <v/>
       </c>
-      <c r="P2" s="119"/>
+      <c r="P2" s="121"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="121" t="str">
+      <c r="A3" s="125" t="str">
         <f>表紙!$F$8</f>
         <v>テスト仕様書</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="125" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125" t="s">
+      <c r="J3" s="128"/>
+      <c r="K3" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125" t="s">
+      <c r="L3" s="128"/>
+      <c r="M3" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125" t="s">
+      <c r="N3" s="128"/>
+      <c r="O3" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="125"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="124" t="str">
+      <c r="A4" s="123" t="str">
         <f ca="1">テスト観点表!A1</f>
         <v>テスト観点表</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="119" t="str">
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="121" t="str">
         <f>表紙!$L$16</f>
         <v>髙橋</v>
       </c>
-      <c r="J4" s="119"/>
-      <c r="K4" s="126">
+      <c r="J4" s="121"/>
+      <c r="K4" s="124">
         <f>表紙!$L$17</f>
         <v>45247</v>
       </c>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126" t="str">
+      <c r="L4" s="124"/>
+      <c r="M4" s="124" t="str">
         <f>IF(COUNTA(更新履歴!$D$6:$E$26)=0, "", INDEX(更新履歴!V:V, MATCH(MAX(更新履歴!$D$6:$E$26), 更新履歴!D:D, 0)))</f>
         <v/>
       </c>
-      <c r="N4" s="119"/>
-      <c r="O4" s="126" t="str">
+      <c r="N4" s="121"/>
+      <c r="O4" s="124" t="str">
         <f>IF(COUNTA(更新履歴!$D$6:$E$26)=0,"",MAX(更新履歴!$D$6:$E$26))</f>
         <v/>
       </c>
-      <c r="P4" s="119"/>
+      <c r="P4" s="121"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="121" t="str">
+      <c r="A5" s="125" t="str">
         <f>表紙!$F$8</f>
         <v>テスト仕様書</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="125" t="s">
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125" t="s">
+      <c r="J5" s="128"/>
+      <c r="K5" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125" t="s">
+      <c r="L5" s="128"/>
+      <c r="M5" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125" t="s">
+      <c r="N5" s="128"/>
+      <c r="O5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="125"/>
+      <c r="P5" s="128"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="124" t="str">
+      <c r="A6" s="123" t="str">
         <f ca="1">テスト仕様書!A1</f>
         <v>テスト仕様書</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="119" t="str">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="121" t="str">
         <f>表紙!$L$16</f>
         <v>髙橋</v>
       </c>
-      <c r="J6" s="119"/>
-      <c r="K6" s="126">
+      <c r="J6" s="121"/>
+      <c r="K6" s="124">
         <f>表紙!$L$17</f>
         <v>45247</v>
       </c>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126" t="s">
+      <c r="L6" s="124"/>
+      <c r="M6" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="119"/>
-      <c r="O6" s="126">
+      <c r="N6" s="121"/>
+      <c r="O6" s="124">
         <v>45320</v>
       </c>
-      <c r="P6" s="119"/>
+      <c r="P6" s="121"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="121" t="str">
+      <c r="A7" s="125" t="str">
         <f>表紙!$F$8</f>
         <v>テスト仕様書</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="125" t="s">
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125" t="s">
+      <c r="J7" s="128"/>
+      <c r="K7" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125" t="s">
+      <c r="L7" s="128"/>
+      <c r="M7" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125" t="s">
+      <c r="N7" s="128"/>
+      <c r="O7" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="125"/>
+      <c r="P7" s="128"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="124"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="119" t="str">
+      <c r="A8" s="123"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="121" t="str">
         <f>表紙!$L$16</f>
         <v>髙橋</v>
       </c>
-      <c r="J8" s="119"/>
-      <c r="K8" s="126">
+      <c r="J8" s="121"/>
+      <c r="K8" s="124">
         <f>表紙!$L$17</f>
         <v>45247</v>
       </c>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126" t="s">
+      <c r="L8" s="124"/>
+      <c r="M8" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="119"/>
-      <c r="O8" s="126">
+      <c r="N8" s="121"/>
+      <c r="O8" s="124">
         <v>45320</v>
       </c>
-      <c r="P8" s="119"/>
+      <c r="P8" s="121"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="121" t="str">
+      <c r="A9" s="125" t="str">
         <f>表紙!$F$8</f>
         <v>テスト仕様書</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="125" t="s">
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125" t="s">
+      <c r="J9" s="128"/>
+      <c r="K9" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125" t="s">
+      <c r="L9" s="128"/>
+      <c r="M9" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125" t="s">
+      <c r="N9" s="128"/>
+      <c r="O9" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="125"/>
+      <c r="P9" s="128"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="124"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="119" t="str">
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="121" t="str">
         <f>表紙!$L$16</f>
         <v>髙橋</v>
       </c>
-      <c r="J10" s="119"/>
-      <c r="K10" s="126">
+      <c r="J10" s="121"/>
+      <c r="K10" s="124">
         <f>表紙!$L$17</f>
         <v>45247</v>
       </c>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126" t="str">
+      <c r="L10" s="124"/>
+      <c r="M10" s="124" t="str">
         <f>IF(COUNTA(更新履歴!$D$6:$E$26)=0, "", INDEX(更新履歴!V:V, MATCH(MAX(更新履歴!$D$6:$E$26), 更新履歴!D:D, 0)))</f>
         <v/>
       </c>
-      <c r="N10" s="119"/>
-      <c r="O10" s="126" t="str">
+      <c r="N10" s="121"/>
+      <c r="O10" s="124" t="str">
         <f>IF(COUNTA(更新履歴!$D$6:$E$26)=0,"",MAX(更新履歴!$D$6:$E$26))</f>
         <v/>
       </c>
-      <c r="P10" s="119"/>
+      <c r="P10" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
